--- a/data/trans_bre/P19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 4,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 7,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,98; 122,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,41; 62,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,28; 158,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,5; 213,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,49%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 2,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 3,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 4,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 6,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,3; 92,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,27; 111,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,45; 171,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; 206,53</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,44%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 2,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,62; 199,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,05; 154,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,67; 71,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,66; 138,88</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 0,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 2,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 3,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 2,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,68; 47,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,33; 208,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,29; 345,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,64; 111,39</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,35%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-1,43; 2,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 1,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 2,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 2,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-75,14; 572,8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,82; 390,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 413,56</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,24%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 1,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 2,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 1,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,06; 73,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,76; 326,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,53; 503,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,54; 73,01</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,26%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 39,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,52; 41,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 68,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 65,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,66</t>
+          <t>-6,66; 6,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,5; 213,81</t>
+          <t>-59,71; 156,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>43,83%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,87</t>
+          <t>-2,47; 5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 206,53</t>
+          <t>-33,62; 180,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,88</t>
+          <t>-1,64; 2,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 138,88</t>
+          <t>-34,76; 137,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>44,34%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,19</t>
+          <t>-0,73; 3,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 111,39</t>
+          <t>-22,76; 285,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100,35%</t>
+          <t>105,81%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,71</t>
+          <t>-0,09; 2,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 413,56</t>
+          <t>-12,15; 418,29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>150,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-32,38%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,53</t>
+          <t>-4,86; 2,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,9</t>
+          <t>-0,57; 3,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,76</t>
+          <t>-1,63; 3,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,17</t>
+          <t>-3,07; 0,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,06; 73,91</t>
+          <t>-75,14; 120,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 326,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 503,05</t>
+          <t>-76,64; 666,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 73,01</t>
+          <t>-81,01; 51,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>-36,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>222,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>18,52%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,3; 3,35</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 1,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 4,15</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 1,98</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-55,28; 194,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,42%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,98; 1,15</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,74; 1,16</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,29; 1,6</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 1,8</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 1,78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-24,35; 39,46</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-19,52; 41,88</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-8,54; 68,69</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 65,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 70,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,82</t>
+          <t>-2,14; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,03</t>
+          <t>-4,07; 4,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,18</t>
+          <t>-1,26; 5,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,44</t>
+          <t>-6,54; 6,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 122,29</t>
+          <t>-30,88; 124,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 62,27</t>
+          <t>-38,18; 64,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 158,35</t>
+          <t>-17,88; 147,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 156,01</t>
+          <t>-59,65; 193,16</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,45</t>
+          <t>-2,44; 2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,95</t>
+          <t>-1,59; 4,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,52</t>
+          <t>-0,73; 4,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,93</t>
+          <t>-1,78; 5,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 92,18</t>
+          <t>-46,65; 93,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 111,15</t>
+          <t>-30,35; 123,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 171,55</t>
+          <t>-15,99; 183,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 180,17</t>
+          <t>-29,1; 171,11</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,46</t>
+          <t>-1,11; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,42</t>
+          <t>-1,42; 2,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,31</t>
+          <t>-2,77; 1,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,87</t>
+          <t>-1,42; 2,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 199,31</t>
+          <t>-41,79; 183,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 154,82</t>
+          <t>-37,85; 146,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 71,04</t>
+          <t>-60,42; 58,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 137,0</t>
+          <t>-32,87; 121,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,85</t>
+          <t>-3,96; 0,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,03</t>
+          <t>-1,84; 1,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,3</t>
+          <t>-0,58; 3,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,22</t>
+          <t>-0,59; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 47,48</t>
+          <t>-75,67; 39,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 208,77</t>
+          <t>-67,19; 186,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 345,01</t>
+          <t>-30,75; 298,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 285,17</t>
+          <t>-21,37; 291,75</t>
         </is>
       </c>
     </row>
@@ -1068,27 +1068,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,61</t>
+          <t>-1,38; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,75</t>
+          <t>-1,87; 1,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,4</t>
+          <t>-1,74; 2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,73</t>
+          <t>-0,15; 2,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 572,8</t>
+          <t>-74,93; 570,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 390,69</t>
+          <t>-72,38; 317,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 418,29</t>
+          <t>-15,31; 412,5</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 2,43</t>
+          <t>-4,84; 2,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,35</t>
+          <t>-0,63; 3,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,37</t>
+          <t>-1,48; 3,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,9</t>
+          <t>-3,43; 0,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 120,11</t>
+          <t>-77,18; 86,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,36; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 666,44</t>
+          <t>-67,48; 839,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,01; 51,81</t>
+          <t>-86,27; 44,87</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,35</t>
+          <t>-3,42; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,44</t>
+          <t>-4,05; 1,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,15</t>
+          <t>-0,53; 4,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,98</t>
+          <t>-1,61; 2,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 671,25</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-92,25; 257,76</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 194,05</t>
+          <t>-50,73; 214,75</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,15</t>
+          <t>-1,06; 1,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,16</t>
+          <t>-0,74; 1,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,6</t>
+          <t>-0,19; 1,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,78</t>
+          <t>-0,55; 1,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 39,46</t>
+          <t>-26,78; 33,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 41,88</t>
+          <t>-18,83; 43,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 68,69</t>
+          <t>-5,96; 67,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 70,5</t>
+          <t>-13,3; 70,99</t>
         </is>
       </c>
     </row>
